--- a/Documents/QFD E2SW (updated criteria & summarized features).xlsx
+++ b/Documents/QFD E2SW (updated criteria & summarized features).xlsx
@@ -916,7 +916,7 @@
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B82" sqref="B82"/>
-      <selection pane="topRight" activeCell="B83" sqref="B83"/>
+      <selection pane="topRight" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,66 +2552,11 @@
       <c r="C83">
         <v>0.10735779919576034</v>
       </c>
-      <c r="D83" s="2">
-        <v>1</v>
-      </c>
-      <c r="E83" s="2">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>3</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83">
-        <v>5</v>
-      </c>
-      <c r="L83">
-        <v>1</v>
-      </c>
-      <c r="M83">
-        <v>5</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
-        <v>1</v>
-      </c>
-      <c r="P83">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>1</v>
-      </c>
-      <c r="R83">
-        <v>1</v>
-      </c>
-      <c r="S83">
-        <v>1</v>
-      </c>
-      <c r="T83">
-        <v>1</v>
-      </c>
-      <c r="U83">
-        <v>1</v>
-      </c>
-      <c r="V83">
-        <v>1</v>
-      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
       <c r="X83">
         <f>SUM(D83:V83)</f>
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.25">
@@ -2624,66 +2569,10 @@
       <c r="C84">
         <v>0.1073577991957604</v>
       </c>
-      <c r="D84" s="2">
-        <v>5</v>
-      </c>
-      <c r="E84">
-        <v>5</v>
-      </c>
-      <c r="F84">
-        <v>5</v>
-      </c>
-      <c r="G84">
-        <v>5</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84">
-        <v>5</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="N84">
-        <v>5</v>
-      </c>
-      <c r="O84">
-        <v>5</v>
-      </c>
-      <c r="P84">
-        <v>5</v>
-      </c>
-      <c r="Q84">
-        <v>5</v>
-      </c>
-      <c r="R84">
-        <v>5</v>
-      </c>
-      <c r="S84">
-        <v>5</v>
-      </c>
-      <c r="T84">
-        <v>5</v>
-      </c>
-      <c r="U84">
-        <v>5</v>
-      </c>
-      <c r="V84">
-        <v>3.6666666666666665</v>
-      </c>
+      <c r="D84" s="2"/>
       <c r="X84">
         <f>SUM(D84:V84)</f>
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.25">
@@ -2696,66 +2585,10 @@
       <c r="C85">
         <v>5.5892523083912821E-2</v>
       </c>
-      <c r="D85" s="2">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>5</v>
-      </c>
-      <c r="F85">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="G85">
-        <v>5</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85">
-        <v>3</v>
-      </c>
-      <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="N85">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="O85">
-        <v>3</v>
-      </c>
-      <c r="P85">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>3</v>
-      </c>
-      <c r="R85">
-        <v>5</v>
-      </c>
-      <c r="S85">
-        <v>5</v>
-      </c>
-      <c r="T85">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="U85">
-        <v>1</v>
-      </c>
-      <c r="V85">
-        <v>5</v>
-      </c>
+      <c r="D85" s="2"/>
       <c r="X85">
         <f>SUM(D85:V85)</f>
-        <v>54.666666666666664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.25">
@@ -2768,66 +2601,10 @@
       <c r="C86">
         <v>0.13087681376565161</v>
       </c>
-      <c r="D86" s="2">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="E86">
-        <v>5</v>
-      </c>
-      <c r="F86">
-        <v>5</v>
-      </c>
-      <c r="G86">
-        <v>5</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>3</v>
-      </c>
-      <c r="J86">
-        <v>3</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86">
-        <v>3</v>
-      </c>
-      <c r="M86">
-        <v>5</v>
-      </c>
-      <c r="N86">
-        <v>3</v>
-      </c>
-      <c r="O86">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="P86">
-        <v>3</v>
-      </c>
-      <c r="Q86">
-        <v>3</v>
-      </c>
-      <c r="R86">
-        <v>5</v>
-      </c>
-      <c r="S86">
-        <v>5</v>
-      </c>
-      <c r="T86">
-        <v>1</v>
-      </c>
-      <c r="U86">
-        <v>5</v>
-      </c>
-      <c r="V86">
-        <v>5</v>
-      </c>
+      <c r="D86" s="2"/>
       <c r="X86">
         <f>SUM(D86:V86)</f>
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.25">
@@ -2840,66 +2617,10 @@
       <c r="C87">
         <v>5.5892523083912821E-2</v>
       </c>
-      <c r="D87" s="2">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87">
-        <v>5</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87">
-        <v>5</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>1</v>
-      </c>
-      <c r="P87">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>1</v>
-      </c>
-      <c r="R87">
-        <v>1</v>
-      </c>
-      <c r="S87">
-        <v>1</v>
-      </c>
-      <c r="T87">
-        <v>1</v>
-      </c>
-      <c r="U87">
-        <v>1</v>
-      </c>
-      <c r="V87">
-        <v>1</v>
-      </c>
+      <c r="D87" s="2"/>
       <c r="X87">
         <f>SUM(D87:V87)</f>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:44" x14ac:dyDescent="0.25">
@@ -2912,66 +2633,10 @@
       <c r="C88">
         <v>0.12644956679358638</v>
       </c>
-      <c r="D88" s="2">
-        <v>3</v>
-      </c>
-      <c r="E88">
-        <v>3</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>3</v>
-      </c>
-      <c r="I88">
-        <v>3</v>
-      </c>
-      <c r="J88">
-        <v>3</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <v>3</v>
-      </c>
-      <c r="O88">
-        <v>3</v>
-      </c>
-      <c r="P88">
-        <v>3</v>
-      </c>
-      <c r="Q88">
-        <v>3</v>
-      </c>
-      <c r="R88">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="S88">
-        <v>5</v>
-      </c>
-      <c r="T88">
-        <v>5</v>
-      </c>
-      <c r="U88">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="V88">
-        <v>3.3333333333333335</v>
-      </c>
+      <c r="D88" s="2"/>
       <c r="X88">
         <f>SUM(D88:V88)</f>
-        <v>52.333333333333336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.25">
@@ -3002,66 +2667,10 @@
       <c r="C91">
         <v>5.1465276111847598E-2</v>
       </c>
-      <c r="D91" s="2">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="L91">
-        <v>1</v>
-      </c>
-      <c r="M91">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="O91">
-        <v>3</v>
-      </c>
-      <c r="P91">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>1</v>
-      </c>
-      <c r="R91">
-        <v>1</v>
-      </c>
-      <c r="S91">
-        <v>1</v>
-      </c>
-      <c r="T91">
-        <v>1</v>
-      </c>
-      <c r="U91">
-        <v>1</v>
-      </c>
-      <c r="V91">
-        <v>5</v>
-      </c>
+      <c r="D91" s="2"/>
       <c r="X91">
         <f>SUM(D91:V91)</f>
-        <v>27.333333333333336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:44" x14ac:dyDescent="0.25">
@@ -3074,66 +2683,10 @@
       <c r="C92">
         <v>0.1029305522236952</v>
       </c>
-      <c r="D92" s="2">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92">
-        <v>1</v>
-      </c>
-      <c r="K92">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-      <c r="M92">
-        <v>3</v>
-      </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="O92">
-        <v>1</v>
-      </c>
-      <c r="P92">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>1</v>
-      </c>
-      <c r="R92">
-        <v>1</v>
-      </c>
-      <c r="S92">
-        <v>1</v>
-      </c>
-      <c r="T92">
-        <v>1</v>
-      </c>
-      <c r="U92">
-        <v>1</v>
-      </c>
-      <c r="V92">
-        <v>1</v>
-      </c>
+      <c r="D92" s="2"/>
       <c r="X92">
         <f>SUM(D92:V92)</f>
-        <v>22.333333333333336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.25">
@@ -3146,129 +2699,52 @@
       <c r="C93" s="3">
         <v>8.8780129587003372E-3</v>
       </c>
-      <c r="D93" s="2">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="E93" s="2">
-        <v>5</v>
-      </c>
-      <c r="F93" s="2">
-        <v>5</v>
-      </c>
-      <c r="G93" s="2">
-        <v>5</v>
-      </c>
-      <c r="H93" s="2">
-        <v>1</v>
-      </c>
-      <c r="I93" s="2">
-        <v>1</v>
-      </c>
-      <c r="J93" s="2">
-        <v>5</v>
-      </c>
-      <c r="K93" s="2">
-        <v>1</v>
-      </c>
-      <c r="L93" s="2">
-        <v>5</v>
-      </c>
-      <c r="M93" s="2">
-        <v>5</v>
-      </c>
-      <c r="N93" s="2">
-        <v>3</v>
-      </c>
-      <c r="O93" s="2">
-        <v>5</v>
-      </c>
-      <c r="P93" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q93" s="2">
-        <v>5</v>
-      </c>
-      <c r="R93" s="2">
-        <v>5</v>
-      </c>
-      <c r="S93" s="2">
-        <v>5</v>
-      </c>
-      <c r="T93" s="2">
-        <v>5</v>
-      </c>
-      <c r="U93" s="2">
-        <v>1</v>
-      </c>
-      <c r="V93">
-        <v>5</v>
-      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
       <c r="X93">
         <f>SUM(D93:V93)</f>
-        <v>76.666666666666671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C94" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D94" s="2">
-        <v>1</v>
-      </c>
-      <c r="E94" s="2">
-        <v>2</v>
-      </c>
-      <c r="F94" s="2">
-        <v>2</v>
-      </c>
-      <c r="G94" s="2">
-        <v>2</v>
-      </c>
-      <c r="H94" s="2">
-        <v>1</v>
-      </c>
-      <c r="I94" s="2">
-        <v>1</v>
-      </c>
-      <c r="J94" s="2">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="K94" s="2">
-        <v>1</v>
-      </c>
-      <c r="L94" s="2">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="M94" s="2">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="N94" s="2">
-        <v>1</v>
-      </c>
-      <c r="O94" s="2">
-        <v>2</v>
-      </c>
-      <c r="P94" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q94" s="2">
-        <v>1</v>
-      </c>
-      <c r="R94" s="2">
-        <v>2</v>
-      </c>
-      <c r="S94" s="2">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="T94" s="2">
-        <v>1</v>
-      </c>
-      <c r="U94" s="2">
-        <v>1</v>
-      </c>
-      <c r="V94" s="2">
-        <v>1</v>
-      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C95" s="3" t="s">
@@ -3852,7 +3328,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B10"/>
+      <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3863,13 +3339,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>125</v>
       </c>
     </row>
